--- a/PROYECTO FINAL DETODITO - EDGAR ZEA MORENO.xlsx
+++ b/PROYECTO FINAL DETODITO - EDGAR ZEA MORENO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\proyecto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E243E558-323E-44C4-AE79-B6FF314B173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608BFEF-CC7D-4191-8F68-41E1C3BEC85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="587" activeTab="2" xr2:uid="{F5DA32E1-AF83-47BE-B300-AB3047888298}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="67">
   <si>
     <t>AÑO</t>
   </si>
@@ -311,9 +311,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -337,6 +336,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,7 +678,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="002060"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -732,7 +736,10 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -808,7 +815,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="002060"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -877,9 +884,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TABLAS!$A$5:$C$8</c:f>
+              <c:f>TABLAS!$A$5:$C$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ENERO</c:v>
@@ -888,6 +895,18 @@
                     <c:v>ENERO</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>ENERO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ENERO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>FEBRERO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEBRERO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>FEBRERO</c:v>
                   </c:pt>
                 </c:lvl>
@@ -898,13 +917,37 @@
                   <c:pt idx="1">
                     <c:v>1</c:v>
                   </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2017</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2021</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -912,18 +955,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$D$5:$D$8</c:f>
+              <c:f>TABLAS!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1235.9199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1255.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1237.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1613.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>293.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1674.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1619.8899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +1005,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1018,9 +1076,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TABLAS!$A$5:$C$8</c:f>
+              <c:f>TABLAS!$A$5:$C$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>ENERO</c:v>
@@ -1029,6 +1087,18 @@
                     <c:v>ENERO</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>ENERO</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ENERO</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>FEBRERO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>FEBRERO</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>FEBRERO</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1039,13 +1109,37 @@
                   <c:pt idx="1">
                     <c:v>1</c:v>
                   </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2017</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2021</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1053,18 +1147,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$E$5:$E$8</c:f>
+              <c:f>TABLAS!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>599</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1240</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,6 +1567,15 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1506,6 +1621,15 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1551,6 +1675,15 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1596,6 +1729,15 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1844,49 +1986,64 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$G$5:$G$19</c:f>
+              <c:f>TABLAS!$G$5:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>ARMENIA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BARRANQUILLA</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BELLO</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>BOGOTA</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BUCARAMANGA</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CALI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>CARTAGENA DE INDIAS</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>CUCUTA</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>IBAGUE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MEDELIN</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>MEDELLIN</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>MONTERIA</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>NEIVA</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>PASTO</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>PEREIRA</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>SANTA MARTA</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>SOACHA</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>SOLEDA</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>VALLEDUPAR</c:v>
                 </c:pt>
               </c:strCache>
@@ -1894,51 +2051,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$H$5:$H$19</c:f>
+              <c:f>TABLAS!$H$5:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>235</c:v>
+                  <c:v>948.70999999999981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>475.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>762.92000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>666.81999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>327.08000000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>360.82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>160.82</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>321</c:v>
+                  <c:v>580.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241.1</c:v>
+                  <c:v>504.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159.5</c:v>
+                  <c:v>454.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>232.1</c:v>
+                  <c:v>304.08000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132</c:v>
+                  <c:v>133.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>435.18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>194.08</c:v>
+                  <c:v>293.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>386.3</c:v>
+                  <c:v>355.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.5</c:v>
+                  <c:v>459.18000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>367.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>304.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>547.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>302.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,49 +2205,64 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$G$5:$G$19</c:f>
+              <c:f>TABLAS!$G$5:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>ARMENIA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BARRANQUILLA</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>BELLO</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>BOGOTA</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>BUCARAMANGA</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CALI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>CARTAGENA DE INDIAS</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>CUCUTA</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>IBAGUE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MEDELIN</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>MEDELLIN</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>MONTERIA</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>NEIVA</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>PASTO</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>PEREIRA</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>SANTA MARTA</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>SOACHA</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>SOLEDA</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>VALLEDUPAR</c:v>
                 </c:pt>
               </c:strCache>
@@ -2083,51 +2270,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$I$5:$I$19</c:f>
+              <c:f>TABLAS!$I$5:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>133</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>226</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>657</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99</c:v>
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,7 +2902,10 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2831,7 +3036,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2841,9 +3049,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$K$5:$K$21</c:f>
+              <c:f>TABLAS!$K$5:$K$34</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>AZUCENA</c:v>
                 </c:pt>
@@ -2854,42 +3062,81 @@
                   <c:v>DEIS</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>DER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DESTER</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>DEXTER</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>FER</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>FERGUR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>FERT</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>FIPLAY</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>GENESIS</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>GTS</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>HERTZ</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HUMBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>KLAS</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>LIVING</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LIZ</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>LORT</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>PECC</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>PILL</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>REGAL</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SAMMY</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SAMY</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SERVIS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SINGLE</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>TERRY</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>VIJER</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>WERT</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>XEIZ</c:v>
                 </c:pt>
               </c:strCache>
@@ -2897,56 +3144,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$L$5:$L$21</c:f>
+              <c:f>TABLAS!$L$5:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>160.82</c:v>
+                  <c:v>293.91999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.5</c:v>
+                  <c:v>308.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>428.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>386.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>783.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>321</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>194.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>160.82</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>241.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>676.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>448.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>388.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>515.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>133.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>241.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>232.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>194.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>192.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
+                  <c:v>372.03999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>194.08</c:v>
                 </c:pt>
               </c:numCache>
@@ -3002,9 +3288,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$K$5:$K$21</c:f>
+              <c:f>TABLAS!$K$5:$K$34</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>AZUCENA</c:v>
                 </c:pt>
@@ -3015,42 +3301,81 @@
                   <c:v>DEIS</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>DER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DESTER</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>DEXTER</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>FER</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>FERGUR</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>FERT</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>FIPLAY</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>GENESIS</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>GTS</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>HERTZ</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HUMBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>KLAS</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>LIVING</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LIZ</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>LORT</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>PECC</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>PILL</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>REGAL</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SAMMY</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SAMY</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SERVIS</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SINGLE</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>TERRY</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>VIJER</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>WERT</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>XEIZ</c:v>
                 </c:pt>
               </c:strCache>
@@ -3058,56 +3383,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$M$5:$M$21</c:f>
+              <c:f>TABLAS!$M$5:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>657</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
@@ -3631,6 +3995,30 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3673,6 +4061,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DC7F-4C1F-9684-A0CA3CC564AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3691,6 +4084,58 @@
                 <c16:uniqueId val="{00000001-05C9-48EB-9473-838152176C84}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3749,29 +4194,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$Y$5:$Y$7</c:f>
+              <c:f>TABLAS!$Y$5:$Y$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$Z$5:$Z$7</c:f>
+              <c:f>TABLAS!$Z$5:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.31263048016701461</c:v>
+                  <c:v>9.7512656834690736E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68736951983298533</c:v>
+                  <c:v>0.13185119964780981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12062513757429012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28989654413383226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18996257979308825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17015188201628881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4248,7 +4717,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4305,7 +4774,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4357,6 +4826,21 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4380,7 +4864,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4449,29 +4933,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$P$5:$P$7</c:f>
+              <c:f>TABLAS!$P$5:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$Q$5:$Q$7</c:f>
+              <c:f>TABLAS!$Q$5:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1235.9199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1255.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1237.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1907.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1674.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1619.8899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,7 +5008,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4569,29 +5077,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TABLAS!$P$5:$P$7</c:f>
+              <c:f>TABLAS!$P$5:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TABLAS!$R$5:$R$7</c:f>
+              <c:f>TABLAS!$R$5:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>599</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7737,8 +8269,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="AÑO">
@@ -7761,7 +8293,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7815,8 +8347,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="MES">
@@ -7839,7 +8371,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7893,8 +8425,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="CIUDAD">
@@ -7917,7 +8449,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7971,8 +8503,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="TIENDA">
@@ -7995,7 +8527,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8726,17 +9258,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78F29028-92C8-463A-81AD-6543E3C12016}" name="TablaDinámica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="Y3:Z7" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78F29028-92C8-463A-81AD-6543E3C12016}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="Y3:Z11" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -8813,12 +9345,24 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -8830,12 +9374,36 @@
   <dataFields count="1">
     <dataField name="Suma de VENTAS REALES" fld="8" showDataAs="percentOfTotal" baseField="0" baseItem="2" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -8854,17 +9422,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78D1B6A7-CFFE-4D69-92CE-1613C38D9185}" name="TablaDinámica5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="P3:R7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78D1B6A7-CFFE-4D69-92CE-1613C38D9185}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="P3:R11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8953,12 +9521,24 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -8979,7 +9559,7 @@
     <dataField name="Suma de VENTAS PREV." fld="7" baseField="0" baseItem="0" numFmtId="3"/>
     <dataField name="Suma de VENTAS REALES" fld="8" baseField="2" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="8" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9016,6 +9596,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="10" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9030,17 +9622,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FCB35A1-AF36-4557-ADCE-7F1A07CF01B9}" name="TablaDinámica4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="K3:M21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FCB35A1-AF36-4557-ADCE-7F1A07CF01B9}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="K3:M34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -9117,7 +9709,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="30">
     <i>
       <x/>
     </i>
@@ -9126,6 +9718,12 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -9137,6 +9735,9 @@
       <x v="7"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
@@ -9146,13 +9747,43 @@
       <x v="11"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
       <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i>
       <x v="17"/>
     </i>
     <i>
       <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i>
       <x v="25"/>
@@ -9218,17 +9849,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1907202E-F54F-4587-AED0-2CEC3457756D}" name="TablaDinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="G3:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1907202E-F54F-4587-AED0-2CEC3457756D}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="G3:I24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -9305,7 +9936,13 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -9325,6 +9962,12 @@
       <x v="7"/>
     </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="10"/>
     </i>
     <i>
@@ -9338,6 +9981,9 @@
     </i>
     <i>
       <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
@@ -9400,17 +10046,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DC83DF4-B254-46BD-9A0F-18FA3F7DFA62}" name="TablaDinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DC83DF4-B254-46BD-9A0F-18FA3F7DFA62}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9493,9 +10139,19 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="8">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
       <x/>
       <x/>
     </i>
@@ -9505,6 +10161,16 @@
       <x/>
     </i>
     <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
       <x v="1"/>
     </i>
     <i t="grand">
@@ -9588,12 +10254,12 @@
   <data>
     <tabular pivotCacheId="654530176">
       <items count="6">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
         <i x="3" s="1"/>
-        <i x="4"/>
-        <i x="5"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9632,25 +10298,25 @@
   <data>
     <tabular pivotCacheId="654530176">
       <items count="19">
+        <i x="15" s="1"/>
+        <i x="3" s="1"/>
         <i x="9" s="1"/>
         <i x="2" s="1"/>
         <i x="8" s="1"/>
         <i x="0" s="1"/>
         <i x="4" s="1"/>
         <i x="6" s="1"/>
+        <i x="16" s="1"/>
+        <i x="1" s="1"/>
         <i x="18" s="1"/>
         <i x="12" s="1"/>
         <i x="14" s="1"/>
         <i x="11" s="1"/>
         <i x="10" s="1"/>
+        <i x="17" s="1"/>
         <i x="5" s="1"/>
         <i x="7" s="1"/>
         <i x="13" s="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -9672,32 +10338,32 @@
         <i x="1" s="1"/>
         <i x="21" s="1"/>
         <i x="12" s="1"/>
+        <i x="3" s="1"/>
+        <i x="6" s="1"/>
         <i x="27" s="1"/>
         <i x="9" s="1"/>
         <i x="26" s="1"/>
+        <i x="16" s="1"/>
         <i x="24" s="1"/>
         <i x="0" s="1"/>
         <i x="10" s="1"/>
+        <i x="17" s="1"/>
+        <i x="5" s="1"/>
         <i x="22" s="1"/>
+        <i x="18" s="1"/>
+        <i x="2" s="1"/>
         <i x="14" s="1"/>
         <i x="8" s="1"/>
+        <i x="19" s="1"/>
+        <i x="4" s="1"/>
+        <i x="28" s="1"/>
+        <i x="15" s="1"/>
+        <i x="20" s="1"/>
+        <i x="7" s="1"/>
         <i x="11" s="1"/>
         <i x="23" s="1"/>
         <i x="13" s="1"/>
         <i x="25" s="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="19" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="28" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="20" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -10103,7 +10769,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
@@ -10112,10 +10778,10 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2">
@@ -10132,7 +10798,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -10141,10 +10807,10 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3">
@@ -10161,7 +10827,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
@@ -10170,10 +10836,10 @@
       <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4">
@@ -10190,7 +10856,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
@@ -10199,10 +10865,10 @@
       <c r="E5">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5">
@@ -10219,7 +10885,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -10228,10 +10894,10 @@
       <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6">
@@ -10248,7 +10914,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
@@ -10257,10 +10923,10 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7">
@@ -10277,7 +10943,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
@@ -10286,10 +10952,10 @@
       <c r="E8">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8">
@@ -10306,7 +10972,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
@@ -10315,10 +10981,10 @@
       <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9">
@@ -10335,7 +11001,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
@@ -10344,10 +11010,10 @@
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10">
@@ -10364,7 +11030,7 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
@@ -10373,10 +11039,10 @@
       <c r="E11">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11">
@@ -10393,7 +11059,7 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
@@ -10402,10 +11068,10 @@
       <c r="E12">
         <v>24</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>31</v>
       </c>
       <c r="H12">
@@ -10422,7 +11088,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
@@ -10431,10 +11097,10 @@
       <c r="E13">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13">
@@ -10451,7 +11117,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
@@ -10460,10 +11126,10 @@
       <c r="E14">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14">
@@ -10480,7 +11146,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
@@ -10489,10 +11155,10 @@
       <c r="E15">
         <v>26</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>37</v>
       </c>
       <c r="H15">
@@ -10509,7 +11175,7 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
@@ -10518,10 +11184,10 @@
       <c r="E16">
         <v>22</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>39</v>
       </c>
       <c r="H16">
@@ -10538,7 +11204,7 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
@@ -10547,10 +11213,10 @@
       <c r="E17">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>29</v>
       </c>
       <c r="H17">
@@ -10567,7 +11233,7 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
@@ -10576,10 +11242,10 @@
       <c r="E18">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>41</v>
       </c>
       <c r="H18">
@@ -10596,7 +11262,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
@@ -10605,10 +11271,10 @@
       <c r="E19">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>15</v>
       </c>
       <c r="H19">
@@ -10625,7 +11291,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
@@ -10634,10 +11300,10 @@
       <c r="E20">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>43</v>
       </c>
       <c r="H20">
@@ -10654,7 +11320,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
@@ -10663,10 +11329,10 @@
       <c r="E21">
         <v>35</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>45</v>
       </c>
       <c r="H21">
@@ -10683,7 +11349,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
@@ -10692,10 +11358,10 @@
       <c r="E22">
         <v>36</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>46</v>
       </c>
       <c r="H22">
@@ -10712,7 +11378,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
@@ -10721,10 +11387,10 @@
       <c r="E23">
         <v>35</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>47</v>
       </c>
       <c r="H23">
@@ -10741,7 +11407,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
@@ -10750,10 +11416,10 @@
       <c r="E24">
         <v>40</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>48</v>
       </c>
       <c r="H24">
@@ -10770,7 +11436,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
@@ -10779,10 +11445,10 @@
       <c r="E25">
         <v>43</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>49</v>
       </c>
       <c r="H25">
@@ -10799,7 +11465,7 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
@@ -10808,10 +11474,10 @@
       <c r="E26">
         <v>44</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>51</v>
       </c>
       <c r="H26">
@@ -10828,7 +11494,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
@@ -10837,10 +11503,10 @@
       <c r="E27">
         <v>43</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>52</v>
       </c>
       <c r="H27">
@@ -10857,7 +11523,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
@@ -10866,10 +11532,10 @@
       <c r="E28">
         <v>45</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>53</v>
       </c>
       <c r="H28">
@@ -10886,7 +11552,7 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
@@ -10895,10 +11561,10 @@
       <c r="E29">
         <v>46</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>54</v>
       </c>
       <c r="H29">
@@ -10915,7 +11581,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30">
@@ -10924,10 +11590,10 @@
       <c r="E30">
         <v>45</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>55</v>
       </c>
       <c r="H30">
@@ -10944,7 +11610,7 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31">
@@ -10953,10 +11619,10 @@
       <c r="E31">
         <v>43</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>56</v>
       </c>
       <c r="H31">
@@ -10973,7 +11639,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32">
@@ -10982,10 +11648,10 @@
       <c r="E32">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>11</v>
       </c>
       <c r="H32">
@@ -11002,7 +11668,7 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33">
@@ -11011,10 +11677,10 @@
       <c r="E33">
         <v>10</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>13</v>
       </c>
       <c r="H33">
@@ -11031,7 +11697,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>57</v>
       </c>
       <c r="D34">
@@ -11040,10 +11706,10 @@
       <c r="E34">
         <v>12</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>15</v>
       </c>
       <c r="H34">
@@ -11060,7 +11726,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
       <c r="D35">
@@ -11069,10 +11735,10 @@
       <c r="E35">
         <v>14</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35">
@@ -11089,7 +11755,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>57</v>
       </c>
       <c r="D36">
@@ -11098,10 +11764,10 @@
       <c r="E36">
         <v>15</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36">
@@ -11118,7 +11784,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>57</v>
       </c>
       <c r="D37">
@@ -11127,10 +11793,10 @@
       <c r="E37">
         <v>10</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>21</v>
       </c>
       <c r="H37">
@@ -11147,7 +11813,7 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38">
@@ -11156,10 +11822,10 @@
       <c r="E38">
         <v>11</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>23</v>
       </c>
       <c r="H38">
@@ -11176,7 +11842,7 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>57</v>
       </c>
       <c r="D39">
@@ -11185,10 +11851,10 @@
       <c r="E39">
         <v>12</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>25</v>
       </c>
       <c r="H39">
@@ -11205,7 +11871,7 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>57</v>
       </c>
       <c r="D40">
@@ -11214,10 +11880,10 @@
       <c r="E40">
         <v>20</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>27</v>
       </c>
       <c r="H40">
@@ -11234,7 +11900,7 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>57</v>
       </c>
       <c r="D41">
@@ -11243,10 +11909,10 @@
       <c r="E41">
         <v>22</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>29</v>
       </c>
       <c r="H41">
@@ -11263,7 +11929,7 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
@@ -11272,10 +11938,10 @@
       <c r="E42">
         <v>24</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>31</v>
       </c>
       <c r="H42">
@@ -11292,7 +11958,7 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>57</v>
       </c>
       <c r="D43">
@@ -11301,10 +11967,10 @@
       <c r="E43">
         <v>24</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43">
@@ -11321,7 +11987,7 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44">
@@ -11330,10 +11996,10 @@
       <c r="E44">
         <v>25</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>35</v>
       </c>
       <c r="H44">
@@ -11350,7 +12016,7 @@
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
@@ -11359,10 +12025,10 @@
       <c r="E45">
         <v>26</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>37</v>
       </c>
       <c r="H45">
@@ -11379,7 +12045,7 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46">
@@ -11388,10 +12054,10 @@
       <c r="E46">
         <v>22</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>39</v>
       </c>
       <c r="H46">
@@ -11408,7 +12074,7 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47">
@@ -11417,10 +12083,10 @@
       <c r="E47">
         <v>23</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>29</v>
       </c>
       <c r="H47">
@@ -11437,7 +12103,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48">
@@ -11446,10 +12112,10 @@
       <c r="E48">
         <v>33</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>58</v>
       </c>
       <c r="H48">
@@ -11466,7 +12132,7 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
       <c r="D49">
@@ -11475,10 +12141,10 @@
       <c r="E49">
         <v>33</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>15</v>
       </c>
       <c r="H49">
@@ -11495,7 +12161,7 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>57</v>
       </c>
       <c r="D50">
@@ -11504,10 +12170,10 @@
       <c r="E50">
         <v>34</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>29</v>
       </c>
       <c r="H50">
@@ -11524,7 +12190,7 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>57</v>
       </c>
       <c r="D51">
@@ -11533,10 +12199,10 @@
       <c r="E51">
         <v>35</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>45</v>
       </c>
       <c r="H51">
@@ -11553,7 +12219,7 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>57</v>
       </c>
       <c r="D52">
@@ -11562,10 +12228,10 @@
       <c r="E52">
         <v>36</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>46</v>
       </c>
       <c r="H52">
@@ -11582,7 +12248,7 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>57</v>
       </c>
       <c r="D53">
@@ -11591,10 +12257,10 @@
       <c r="E53">
         <v>35</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>47</v>
       </c>
       <c r="H53">
@@ -11614,7 +12280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5471D5-ED22-47D0-82E5-06A1D0AFAC52}">
-  <dimension ref="A3:Z21"/>
+  <dimension ref="A3:Z34"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
@@ -11636,30 +12302,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -11668,7 +12334,7 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
@@ -11677,7 +12343,7 @@
       <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L4" t="s">
@@ -11686,7 +12352,7 @@
       <c r="M4" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -11695,7 +12361,7 @@
       <c r="R4" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" t="s">
@@ -11704,7 +12370,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11712,49 +12378,49 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
-        <v>1255.18</v>
-      </c>
-      <c r="E5" s="5">
-        <v>599</v>
+      <c r="D5" s="3">
+        <v>1235.9199999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>443</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4">
-        <v>235</v>
-      </c>
-      <c r="I5" s="5">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="3">
+        <v>948.70999999999981</v>
+      </c>
+      <c r="I5" s="4">
+        <v>461</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="5">
-        <v>160.82</v>
-      </c>
-      <c r="M5" s="5">
-        <v>54</v>
+      <c r="L5" s="4">
+        <v>293.91999999999996</v>
+      </c>
+      <c r="M5" s="4">
+        <v>86</v>
       </c>
       <c r="P5">
-        <v>2017</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1255.18</v>
-      </c>
-      <c r="R5" s="5">
-        <v>599</v>
+        <v>2016</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1235.9199999999998</v>
+      </c>
+      <c r="R5" s="4">
+        <v>443</v>
       </c>
       <c r="Y5">
-        <v>2017</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0.31263048016701461</v>
+        <v>2016</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>9.7512656834690736E-2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11762,359 +12428,667 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
-        <v>1613.3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1240</v>
+      <c r="D6" s="3">
+        <v>1255.18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>599</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4">
-        <v>110</v>
-      </c>
-      <c r="I6" s="5">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="3">
+        <v>475.98</v>
+      </c>
+      <c r="I6" s="4">
+        <v>236</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>200</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>100</v>
       </c>
       <c r="P6">
-        <v>2019</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1907.12</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1317</v>
+        <v>2017</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1255.18</v>
+      </c>
+      <c r="R6" s="4">
+        <v>599</v>
       </c>
       <c r="Y6">
-        <v>2019</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0.68736951983298533</v>
+        <v>2017</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.13185119964780981</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4">
-        <v>293.82</v>
-      </c>
-      <c r="E7" s="5">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1237.0999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>548</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4">
-        <v>327.08000000000004</v>
-      </c>
-      <c r="I7" s="5">
-        <v>116</v>
+        <v>28</v>
+      </c>
+      <c r="H7" s="3">
+        <v>762.92000000000007</v>
+      </c>
+      <c r="I7" s="4">
+        <v>400</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="5">
-        <v>159.5</v>
-      </c>
-      <c r="M7" s="5">
-        <v>65</v>
-      </c>
-      <c r="P7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>3162.3</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1916</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1</v>
+      <c r="L7" s="4">
+        <v>308.2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>119</v>
+      </c>
+      <c r="P7">
+        <v>2018</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1237.0999999999999</v>
+      </c>
+      <c r="R7" s="4">
+        <v>548</v>
+      </c>
+      <c r="Y7">
+        <v>2018</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0.12062513757429012</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3162.3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1916</v>
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1613.3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1240</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
-        <v>360.82</v>
-      </c>
-      <c r="I8" s="5">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="3">
+        <v>666.81999999999994</v>
+      </c>
+      <c r="I8" s="4">
+        <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="5">
-        <v>386.3</v>
-      </c>
-      <c r="M8" s="5">
-        <v>657</v>
+        <v>17</v>
+      </c>
+      <c r="L8" s="4">
+        <v>428.08000000000004</v>
+      </c>
+      <c r="M8" s="4">
+        <v>193</v>
+      </c>
+      <c r="P8">
+        <v>2019</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1907.12</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1317</v>
+      </c>
+      <c r="Y8">
+        <v>2019</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0.28989654413383226</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3">
+        <v>293.82</v>
+      </c>
+      <c r="E9" s="4">
+        <v>77</v>
+      </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4">
-        <v>160.82</v>
-      </c>
-      <c r="I9" s="5">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="H9" s="3">
+        <v>327.08000000000004</v>
+      </c>
+      <c r="I9" s="4">
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="5">
-        <v>235</v>
-      </c>
-      <c r="M9" s="5">
-        <v>133</v>
+        <v>23</v>
+      </c>
+      <c r="L9" s="4">
+        <v>266.2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>155</v>
+      </c>
+      <c r="P9">
+        <v>2020</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1674.98</v>
+      </c>
+      <c r="R9" s="4">
+        <v>863</v>
+      </c>
+      <c r="Y9">
+        <v>2020</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0.18996257979308825</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1674.98</v>
+      </c>
+      <c r="E10" s="4">
+        <v>863</v>
+      </c>
       <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="4">
-        <v>321</v>
-      </c>
-      <c r="I10" s="5">
-        <v>226</v>
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>580.81999999999994</v>
+      </c>
+      <c r="I10" s="4">
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="5">
-        <v>321</v>
-      </c>
-      <c r="M10" s="5">
-        <v>226</v>
+        <v>56</v>
+      </c>
+      <c r="L10" s="4">
+        <v>386.3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>657</v>
+      </c>
+      <c r="P10">
+        <v>2021</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1619.8899999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <v>773</v>
+      </c>
+      <c r="Y10">
+        <v>2021</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.17015188201628881</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1619.8899999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>773</v>
+      </c>
       <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4">
-        <v>241.1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>143</v>
+        <v>18</v>
+      </c>
+      <c r="H11" s="3">
+        <v>504.82</v>
+      </c>
+      <c r="I11" s="4">
+        <v>220</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="5">
-        <v>160.82</v>
-      </c>
-      <c r="M11" s="5">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="L11" s="4">
+        <v>783.08</v>
+      </c>
+      <c r="M11" s="4">
+        <v>497</v>
+      </c>
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>8930.1899999999987</v>
+      </c>
+      <c r="R11" s="4">
+        <v>4543</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8930.1899999999987</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4543</v>
+      </c>
       <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="4">
-        <v>159.5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="H12" s="3">
+        <v>454.1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>258</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="5">
-        <v>133</v>
-      </c>
-      <c r="M12" s="5">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="L12" s="4">
+        <v>321</v>
+      </c>
+      <c r="M12" s="4">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="4">
-        <v>232.1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>141</v>
+        <v>42</v>
+      </c>
+      <c r="H13" s="3">
+        <v>304.08000000000004</v>
+      </c>
+      <c r="I13" s="4">
+        <v>185</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="5">
-        <v>110</v>
-      </c>
-      <c r="M13" s="5">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="L13" s="4">
+        <v>194.08</v>
+      </c>
+      <c r="M13" s="4">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>133.1</v>
+      </c>
+      <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="H14" s="4">
-        <v>132</v>
-      </c>
-      <c r="I14" s="5">
-        <v>54</v>
-      </c>
       <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="5">
-        <v>241.1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>143</v>
+        <v>53</v>
+      </c>
+      <c r="L14" s="4">
+        <v>160.82</v>
+      </c>
+      <c r="M14" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="4">
-        <v>110</v>
-      </c>
-      <c r="I15" s="5">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="H15" s="3">
+        <v>435.18</v>
+      </c>
+      <c r="I15" s="4">
+        <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="5">
-        <v>232.1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="L15" s="4">
+        <v>243</v>
+      </c>
+      <c r="M15" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4">
-        <v>194.08</v>
-      </c>
-      <c r="I16" s="5">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="H16" s="3">
+        <v>293.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="5">
-        <v>194.08</v>
-      </c>
-      <c r="M16" s="5">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="L16" s="4">
+        <v>220</v>
+      </c>
+      <c r="M16" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="4">
-        <v>386.3</v>
-      </c>
-      <c r="I17" s="5">
-        <v>657</v>
+        <v>38</v>
+      </c>
+      <c r="H17" s="3">
+        <v>355.1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="5">
-        <v>132</v>
-      </c>
-      <c r="M17" s="5">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="L17" s="4">
+        <v>468</v>
+      </c>
+      <c r="M17" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="4">
-        <v>192.5</v>
-      </c>
-      <c r="I18" s="5">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="H18" s="3">
+        <v>459.18000000000006</v>
+      </c>
+      <c r="I18" s="4">
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="5">
-        <v>110</v>
-      </c>
-      <c r="M18" s="5">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="L18" s="4">
+        <v>220</v>
+      </c>
+      <c r="M18" s="4">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3162.3</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1916</v>
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>708</v>
+      </c>
+      <c r="I19" s="4">
+        <v>233</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="5">
-        <v>192.5</v>
-      </c>
-      <c r="M19" s="5">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="L19" s="4">
+        <v>241.1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3">
+        <v>367.1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>176</v>
+      </c>
       <c r="K20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="5">
-        <v>194.08</v>
-      </c>
-      <c r="M20" s="5">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="L20" s="4">
+        <v>220</v>
+      </c>
+      <c r="M20" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3">
+        <v>304.08000000000004</v>
+      </c>
+      <c r="I21" s="4">
+        <v>81</v>
+      </c>
       <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="4">
+        <v>676.54</v>
+      </c>
+      <c r="M21" s="4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3">
+        <v>547.12</v>
+      </c>
+      <c r="I22" s="4">
+        <v>719</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="4">
+        <v>448.65</v>
+      </c>
+      <c r="M22" s="4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="3">
+        <v>302.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="4">
+        <v>388.16</v>
+      </c>
+      <c r="M23" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="5">
-        <v>3162.2999999999997</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1916</v>
+      <c r="H24" s="3">
+        <v>8930.19</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4543</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="4">
+        <v>266.2</v>
+      </c>
+      <c r="M24" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="4">
+        <v>515.9</v>
+      </c>
+      <c r="M25" s="4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="4">
+        <v>133.1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="4">
+        <v>133.1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="4">
+        <v>162</v>
+      </c>
+      <c r="M28" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="4">
+        <v>321.64</v>
+      </c>
+      <c r="M29" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="4">
+        <v>255</v>
+      </c>
+      <c r="M30" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="4">
+        <v>110</v>
+      </c>
+      <c r="M31" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="4">
+        <v>372.03999999999996</v>
+      </c>
+      <c r="M32" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="4">
+        <v>194.08</v>
+      </c>
+      <c r="M33" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="4">
+        <v>8930.19</v>
+      </c>
+      <c r="M34" s="4">
+        <v>4543</v>
       </c>
     </row>
   </sheetData>
@@ -12124,251 +13098,253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9978C91C-73D3-4921-830F-C0A2E28BFEA0}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
+    <row r="15" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
